--- a/CHITWORKFLOW.xlsx
+++ b/CHITWORKFLOW.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="132">
   <si>
     <t>LINK</t>
   </si>
@@ -2470,6 +2470,1426 @@
         <family val="3"/>
       </rPr>
       <t>"07-05-2021"</t>
+    </r>
+  </si>
+  <si>
+    <t>view member history</t>
+  </si>
+  <si>
+    <r>
+      <t>router</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'/viewmemberhistory'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>verifyToken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>routecontroller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>viewmembershistory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>http://localhost:8080/chitapi/viewmemberhistory</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>chitname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>req</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>body</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"mem"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"mem_10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>input1:</t>
+  </si>
+  <si>
+    <r>
+      <t>"paymenthistory"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"for the chit=chit14-for the month=jan- payment is=yes"]</t>
+    </r>
+  </si>
+  <si>
+    <t>input2:</t>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"for the month jan payment is yes"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"chitname"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"chit14"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"mem"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"mem_10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>input3:</t>
+  </si>
+  <si>
+    <r>
+      <t>"mem"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"mem_10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"month"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"feb"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"member not found"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"membername"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"mem_10"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"month"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"jan"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>input4:</t>
+  </si>
+  <si>
+    <r>
+      <t>"message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"completed"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"membername"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"mem_10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Formonth"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"jan"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"paid"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"yes"</t>
+    </r>
+  </si>
+  <si>
+    <t>get chitinfo</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/chitapi/getchitinfo</t>
+  </si>
+  <si>
+    <r>
+      <t>router</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'/getchitinfo'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>verifyToken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>routecontroller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getchitinfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>{chitname,op}=req.body</t>
+  </si>
+  <si>
+    <r>
+      <t>"op"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"chit payments"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"op"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CHIT VALUE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"success"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"data"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"_id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"60938e313c1c1a1fa0362ea4"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"chitvalue"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+  </si>
+  <si>
+    <t>   </t>
+  </si>
+  <si>
+    <r>
+      <t>"op"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CHIT PERIOD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"success"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"chitperiod"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"chitendson"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"09-10-2021"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"chitstarted"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"06-05-2021"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"chitmonthsmore"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"op"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CHIT SIZE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"chitsize"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>input5:</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"chitname"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"chit14"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>TOTAL CHIT DATA</t>
+  </si>
+  <si>
+    <t>input6:</t>
+  </si>
+  <si>
+    <r>
+      <t>"op"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"no input for modifications"</t>
     </r>
   </si>
 </sst>
@@ -2477,7 +3897,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2681,6 +4101,18 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4FC1FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2786,7 +4218,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2898,9 +4330,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2916,12 +4345,41 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3217,10 +4675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3228,7 +4686,7 @@
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.5546875" customWidth="1"/>
     <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
     <col min="5" max="5" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3365,401 +4823,845 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="46" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="58" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1">
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="61" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1"/>
-    <row r="22" spans="1:5" ht="31.8">
-      <c r="A22" t="s">
+    <row r="23" spans="1:5" ht="15" thickBot="1"/>
+    <row r="24" spans="1:5">
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="1:5" ht="31.8">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.600000000000001">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="32"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" s="2"/>
+      <c r="C33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="76"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="76"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" s="2"/>
+      <c r="C37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1">
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="D42" s="66"/>
+      <c r="E42" s="65"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1">
+      <c r="D43" s="66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="31.8">
+      <c r="A44" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B44" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E44" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="11" t="s">
+    <row r="45" spans="1:5" ht="15" thickBot="1">
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E45" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1"/>
-    <row r="26" spans="1:5" ht="53.4">
-      <c r="A26" t="s">
+    <row r="46" spans="1:5">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1"/>
+    <row r="48" spans="1:5" ht="53.4">
+      <c r="A48" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B48" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C48" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D48" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E48" s="49" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="66" t="s">
+    <row r="49" spans="1:5">
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E49" s="53" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="66" t="s">
+    <row r="50" spans="1:5">
+      <c r="B50" s="50"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E50" s="53" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="66" t="s">
+    <row r="51" spans="1:5">
+      <c r="B51" s="50"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E51" s="53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="66" t="s">
+    <row r="52" spans="1:5">
+      <c r="B52" s="50"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E52" s="53" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="53" t="s">
+    <row r="53" spans="1:5">
+      <c r="B53" s="50"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="53" t="s">
+    <row r="54" spans="1:5">
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="53" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="53" t="s">
+    <row r="55" spans="1:5">
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="53" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="53" t="s">
+    <row r="56" spans="1:5">
+      <c r="B56" s="50"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="53" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="53" t="s">
+    <row r="57" spans="1:5">
+      <c r="B57" s="50"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="53" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="53" t="s">
+    <row r="58" spans="1:5">
+      <c r="B58" s="50"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="53" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1">
-      <c r="B37" s="54"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="56" t="s">
+    <row r="59" spans="1:5" ht="15" thickBot="1">
+      <c r="B59" s="54"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="56" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1"/>
-    <row r="40" spans="1:5" ht="30.6">
-      <c r="A40" s="6" t="s">
+    <row r="61" spans="1:5" ht="15" thickBot="1"/>
+    <row r="62" spans="1:5" ht="30.6">
+      <c r="A62" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B62" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D62" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E62" s="23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="B41" s="24"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="25" t="s">
+    <row r="63" spans="1:5">
+      <c r="B63" s="24"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="26"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1">
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="27" t="s">
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1">
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="28"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" ht="30.6">
-      <c r="A45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1">
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="30"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1"/>
-    <row r="49" spans="1:5" ht="31.8">
-      <c r="A49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1">
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="20"/>
-    </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1"/>
-    <row r="53" spans="1:5" ht="31.8">
-      <c r="A53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="28.8">
-      <c r="B54" s="2"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="32"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" s="32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="28.8">
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="2"/>
+      <c r="E64" s="28"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="2"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1">
+      <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="32" t="s">
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5" ht="30.6">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1">
+      <c r="B68" s="10"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="30"/>
+    </row>
+    <row r="70" spans="1:5" ht="15" thickBot="1"/>
+    <row r="71" spans="1:5" ht="31.8">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" thickBot="1">
+      <c r="B72" s="4"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="20"/>
+    </row>
+    <row r="73" spans="1:5" ht="15" thickBot="1"/>
+    <row r="74" spans="1:5" ht="31.8">
+      <c r="A74" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" s="31"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="B75" s="2"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="32"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="B76" s="2"/>
+      <c r="C76" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="B77" s="2"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="32"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="B78" s="2"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="32"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="B79" s="2"/>
+      <c r="C79" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="B80" s="2"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="E80" s="76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="2"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="2"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="2"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="2"/>
+      <c r="C84" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="2"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" s="76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="2"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="2"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="2"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="2"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="2"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="2"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="32"/>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="2"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="32"/>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="2"/>
+      <c r="C94" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E94" s="74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="2"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="E95" s="76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="2"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="B97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="B98" s="2"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="B99" s="2"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="32"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="B100" s="2"/>
+      <c r="C100" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E100" s="76" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="B101" s="2"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="32"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="B102" s="2"/>
+      <c r="C102" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E102" s="74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="B103" s="2"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="E103" s="76"/>
+    </row>
+    <row r="104" spans="1:5" ht="15" thickBot="1">
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="20"/>
+    </row>
+    <row r="107" spans="1:5" ht="15" thickBot="1"/>
+    <row r="108" spans="1:5" ht="31.8">
+      <c r="A108" t="s">
+        <v>45</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E108" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="28.8">
+      <c r="B109" s="2"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="B110" s="2"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="B111" s="2"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="32"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="B112" s="2"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E112" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="2"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="2"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" s="2"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="28.8">
+      <c r="B116" s="2"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" s="2"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" s="2"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" s="2"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="2"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="2"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="15" thickBot="1">
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="20" t="s">
+    <row r="122" spans="2:5" ht="15" thickBot="1">
+      <c r="B122" s="4"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3767,14 +5669,15 @@
   <hyperlinks>
     <hyperlink ref="E18" r:id="rId1"/>
     <hyperlink ref="E19" r:id="rId2"/>
-    <hyperlink ref="E22" r:id="rId3"/>
-    <hyperlink ref="E23" r:id="rId4"/>
-    <hyperlink ref="E40" r:id="rId5"/>
+    <hyperlink ref="E62" r:id="rId3"/>
+    <hyperlink ref="E67" r:id="rId4"/>
+    <hyperlink ref="E71" r:id="rId5"/>
     <hyperlink ref="E45" r:id="rId6"/>
-    <hyperlink ref="E49" r:id="rId7"/>
+    <hyperlink ref="E44" r:id="rId7"/>
+    <hyperlink ref="E76" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
